--- a/GSE107451/processed_data/DESeq_result/DESeq_DGRP-551_female_30_vs_3_UP0.05.xlsx
+++ b/GSE107451/processed_data/DESeq_result/DESeq_DGRP-551_female_30_vs_3_UP0.05.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -42,6 +42,585 @@
   </si>
   <si>
     <t xml:space="preserve">up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR42491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG16743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">His2B:CG33868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pabp2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rh2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RpL22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">twit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG9377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG40472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIFa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rh4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG44325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG30438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIG-T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG8620</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sphinx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR45139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR43259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG6357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG5758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG12239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG7888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG15082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR44832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ced-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG31248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Picot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG15537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snoRNA:Psi28S-2179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFS9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sod3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG32521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR31044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR40469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tsp42Ed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG14629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">santa-maria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG4829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG34423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG11426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR31781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ImpL3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arc1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR43651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HmgD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG14401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR44998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oatp58Dc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG11768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG31676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mab-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG12065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP1029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG31869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Idgf3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG9507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TwdlG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lectin-46Cb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">axo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irk3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG42365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obp99c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR44137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irbp18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG10513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG7084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GstS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG34446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG11407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG7509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nrv2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dgp-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rpb12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG16978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG31663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28SrRNA-Psi:CR40596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG9467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RpS5b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG43679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG13631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG7191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG10527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyp4g15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG13053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NimC4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mfas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roX1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tsf1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG9657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyp313a1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR44107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arr2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snRNA:7SK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG9689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR44965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG10126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR17025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG10361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR45161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG8066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG14945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sodh-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG12926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG8745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG6409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paf-AHalpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG17896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Csas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zyd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG8646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rip11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ClC-a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">let-7-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rtp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG34134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sxe2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TwdlW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR45195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Galphai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG12730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG5955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hexo2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG7860</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG13124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR45875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28SrRNA-Psi:CR45859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG13833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG31974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG5404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR45018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mst36Fb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mmp1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obp56h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muc14A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG13707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG33774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyp28d1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG30285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">His2B:CG17949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l(1)G0004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR43148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR44054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snoRNA:Psi18S-1377a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mnd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ets96B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG15914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roX2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG15201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ripalpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG10514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obp19d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p38a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG7130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG31706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG9119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arr1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG14695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rh3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG5910</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG2254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CalpB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gbeta76C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MtnA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG34445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG5895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG6723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GstD9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG12177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG10365</t>
   </si>
 </sst>
 </file>
@@ -404,24 +983,5042 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>19.8441801693179</v>
+        <v>15607.4741366714</v>
       </c>
       <c r="C2" t="n">
-        <v>1.24283443288974</v>
+        <v>1.9962577726082</v>
       </c>
       <c r="D2" t="n">
-        <v>0.053456431996294</v>
+        <v>0.191134033969549</v>
       </c>
       <c r="E2" t="n">
-        <v>23.2494834854654</v>
+        <v>10.4442821152733</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000143974944118372</v>
+        <v>0.000000000000000000000000155628364802151</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000101584607000092</v>
+        <v>0.000000000000000000000611074774395648</v>
       </c>
       <c r="H2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="n">
+        <v>86.7887890977565</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.37149748897569</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.648253678381829</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.74349816245984</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0000000000154617932896273</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0000000242842925406886</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="n">
+        <v>140.543338083792</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.40357195687849</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.568555006697513</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5.9863547357508</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.00000000214596069708773</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.00000240746133631856</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="n">
+        <v>88.0227852768883</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5.67838718779473</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.973107539018243</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5.83531311814066</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.00000000536896439911242</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.00000527030967827873</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="n">
+        <v>190.61457738553</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.00003897453328</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.384116976054976</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5.20684869248536</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.00000019207458494663</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.000116027824275837</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="n">
+        <v>398.344009748376</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5.82979380696567</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.13410465771567</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5.14043723152336</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.000000274099881311846</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.000143500424529462</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="n">
+        <v>744.53807444867</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.12396955731147</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.219749753293163</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5.11477050812434</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.000000314122628017654</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.000154175312363915</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="n">
+        <v>47.8809580684508</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.50575419343591</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.699052854835752</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5.01500590289358</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.00000053031837578843</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.000231366122503697</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="n">
+        <v>302.455822466224</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.56029530964958</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.531358672154858</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4.81839375890231</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.00000144718550809171</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.000516579445229283</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="n">
+        <v>99.2695366108703</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.0367362330526</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.432113100115965</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4.71343320187701</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0000024357759707692</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.000797006195768772</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n">
+        <v>54.0608676045576</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4.91536600611302</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.06292712205661</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4.62436784621931</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.00000375742550154437</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.00113488701783184</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n">
+        <v>314.994017729575</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7.50306308534338</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.63782955185686</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4.58110129765147</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.00000462533722918807</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.00129724190217193</v>
+      </c>
+      <c r="H13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="n">
+        <v>42.5026883630694</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3.80063160451128</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.838445709202892</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4.53294895876386</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.00000581658739972647</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.00154460724134324</v>
+      </c>
+      <c r="H14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="n">
+        <v>123.028889078731</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.74038017238597</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.38936129952115</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4.46983347992301</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.00000782805187631641</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.00192105285577228</v>
+      </c>
+      <c r="H15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3341.64381285598</v>
+      </c>
+      <c r="C16" t="n">
+        <v>10.3421053300736</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.39745803906038</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4.31377949543882</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0000160487021077851</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.00360087021864103</v>
+      </c>
+      <c r="H16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="n">
+        <v>443.42909588825</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.20386545322787</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.284817779077944</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4.22679180044592</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0000237046809935206</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.00517091277339215</v>
+      </c>
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="n">
+        <v>23.3608536784795</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4.11311486297911</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.02466233431616</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4.01411735869466</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0000596686545389887</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0120148190793507</v>
+      </c>
+      <c r="H18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="n">
+        <v>140.644520501339</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.46509123413494</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.364499453026685</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4.01946072063838</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0000583315053606435</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.0120148190793507</v>
+      </c>
+      <c r="H19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="n">
+        <v>111.78121396926</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2.27073250163109</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.572295548896814</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3.96776194749071</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0000725507490939195</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0142435258158638</v>
+      </c>
+      <c r="H20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="n">
+        <v>36.3756158588225</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5.13442869198827</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.30973921903603</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3.92019160559857</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0000884785943704292</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0169468878436825</v>
+      </c>
+      <c r="H21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="n">
+        <v>81.7221588247748</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.84058621623359</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.471299667860458</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3.90534163664751</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0000940923607531002</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0171838909068394</v>
+      </c>
+      <c r="H22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n">
+        <v>28.8885181245794</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4.12666044133505</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.06125206101729</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3.88848285239546</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.00010087279558924</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0180035014491432</v>
+      </c>
+      <c r="H23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="n">
+        <v>231.684270907414</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.97496556262589</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.509678288529339</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3.87492582492496</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.000106657182711559</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0182901591124815</v>
+      </c>
+      <c r="H24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="n">
+        <v>589.886633042253</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.03741479130852</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.267800631171814</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3.87383251028612</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.000107137058343837</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0182901591124815</v>
+      </c>
+      <c r="H25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2515.4060655222</v>
+      </c>
+      <c r="C26" t="n">
+        <v>6.09748233026636</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.58695686514607</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3.84224830818268</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.000121912406128313</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.020369747347354</v>
+      </c>
+      <c r="H26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="n">
+        <v>246.372871159663</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2.49312344568107</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.654891995710042</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3.80692306825035</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.00014070649150885</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0225503689350815</v>
+      </c>
+      <c r="H27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="n">
+        <v>24.9809460224331</v>
+      </c>
+      <c r="C28" t="n">
+        <v>4.13286192437569</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.09500024236116</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3.77430229190082</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.000160456101028756</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0252012352275765</v>
+      </c>
+      <c r="H28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1977.71050230552</v>
+      </c>
+      <c r="C29" t="n">
+        <v>6.28654258115868</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.67312762342955</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3.75735986491732</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.000171715470968909</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0260362937616245</v>
+      </c>
+      <c r="H29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="n">
+        <v>88.4733878379686</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.93940876005349</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.523535947573584</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3.70444239606088</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.000211856242628627</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0308093902474557</v>
+      </c>
+      <c r="H30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="n">
+        <v>102.589041590457</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2.04898038128309</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.556002395089967</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3.68520063830219</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.000228522545188747</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0324652126624962</v>
+      </c>
+      <c r="H31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="n">
+        <v>80.9138300956849</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2.45295425099925</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.671783616988797</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3.6514052873072</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.00026080928263205</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.035668718049006</v>
+      </c>
+      <c r="H32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" t="n">
+        <v>604.034835864444</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.30981087674628</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.359328554792159</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3.64516223182958</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.000267223175797888</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.035668718049006</v>
+      </c>
+      <c r="H33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="n">
+        <v>19.9627243665874</v>
+      </c>
+      <c r="C34" t="n">
+        <v>6.22490871055478</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.72008858512013</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3.61894658473072</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.000295804681363926</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0374670026250147</v>
+      </c>
+      <c r="H34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="n">
+        <v>45.3513220981472</v>
+      </c>
+      <c r="C35" t="n">
+        <v>3.55933359060549</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.988223380193649</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3.60175003136236</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.000316082218581384</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.0387842759768689</v>
+      </c>
+      <c r="H35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="n">
+        <v>238.437172925947</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2.20903864806335</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.615413437327193</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3.58951968559128</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.000331287813915287</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0400246646565653</v>
+      </c>
+      <c r="H36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="n">
+        <v>458.231560865605</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.4569815953435</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.40665265121688</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3.58286510854801</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.000339846124008936</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0404365395733663</v>
+      </c>
+      <c r="H37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" t="n">
+        <v>50.8527454123815</v>
+      </c>
+      <c r="C38" t="n">
+        <v>3.14942557017579</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.885968614430666</v>
+      </c>
+      <c r="E38" t="n">
+        <v>3.55478232397617</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.000378292134208023</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0436871783814059</v>
+      </c>
+      <c r="H38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" t="n">
+        <v>402.511419339793</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.90488678089204</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.535751384096403</v>
+      </c>
+      <c r="E39" t="n">
+        <v>3.5555424352376</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.000377200054383467</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0436871783814059</v>
+      </c>
+      <c r="H39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" t="n">
+        <v>87.1214355164795</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2.2222254022374</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.63468766732142</v>
+      </c>
+      <c r="E40" t="n">
+        <v>3.50128971564217</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.000463012206581009</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.050500484142787</v>
+      </c>
+      <c r="H40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" t="n">
+        <v>123.263618605736</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.70380630634134</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.487803827216873</v>
+      </c>
+      <c r="E41" t="n">
+        <v>3.49281045223091</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.000477965648554315</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.0514173183300964</v>
+      </c>
+      <c r="H41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" t="n">
+        <v>28.2009934997893</v>
+      </c>
+      <c r="C42" t="n">
+        <v>4.86922217694112</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1.4030981482795</v>
+      </c>
+      <c r="E42" t="n">
+        <v>3.47033611505499</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.000519807446427108</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.05371115627358</v>
+      </c>
+      <c r="H42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" t="n">
+        <v>34.3255287387234</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2.75727875574313</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.795588422205796</v>
+      </c>
+      <c r="E43" t="n">
+        <v>3.46571000631015</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.000528833343116228</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.0539341330323602</v>
+      </c>
+      <c r="H43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" t="n">
+        <v>112.447341412607</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2.05703426452912</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.598947827381581</v>
+      </c>
+      <c r="E44" t="n">
+        <v>3.43441309992199</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.000593838443417637</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.0597873499507526</v>
+      </c>
+      <c r="H44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" t="n">
+        <v>183.480749816059</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1.55352723472355</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.455531907275597</v>
+      </c>
+      <c r="E45" t="n">
+        <v>3.41035876941034</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.000648774751331581</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.0613834713518904</v>
+      </c>
+      <c r="H45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" t="n">
+        <v>25.731243119039</v>
+      </c>
+      <c r="C46" t="n">
+        <v>3.31783995494939</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.980882060100371</v>
+      </c>
+      <c r="E46" t="n">
+        <v>3.38250651113945</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.000718275751607963</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.0655885985741551</v>
+      </c>
+      <c r="H46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" t="n">
+        <v>18.2760677257702</v>
+      </c>
+      <c r="C47" t="n">
+        <v>4.23694043322604</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.27199357003686</v>
+      </c>
+      <c r="E47" t="n">
+        <v>3.33094485147692</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.000865517476347174</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.0723075398058975</v>
+      </c>
+      <c r="H47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" t="n">
+        <v>26.3432229457461</v>
+      </c>
+      <c r="C48" t="n">
+        <v>3.23150886005032</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.96891230537069</v>
+      </c>
+      <c r="E48" t="n">
+        <v>3.33519229979641</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.000852404308981766</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.0723075398058975</v>
+      </c>
+      <c r="H48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" t="n">
+        <v>93.288103073884</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2.29029642878195</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.686359748497794</v>
+      </c>
+      <c r="E49" t="n">
+        <v>3.33687462558028</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.000847261585908797</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.0723075398058975</v>
+      </c>
+      <c r="H49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" t="n">
+        <v>77.5698243090507</v>
+      </c>
+      <c r="C50" t="n">
+        <v>2.07339398935139</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.619507322790891</v>
+      </c>
+      <c r="E50" t="n">
+        <v>3.34684339163372</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.000817373736547305</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.0723075398058975</v>
+      </c>
+      <c r="H50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" t="n">
+        <v>136.521728910843</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2.02540688680922</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.607846409131743</v>
+      </c>
+      <c r="E51" t="n">
+        <v>3.3321030714031</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.000861923271376469</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.0723075398058975</v>
+      </c>
+      <c r="H51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" t="n">
+        <v>391.450253198302</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1.14294091886628</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.345026655931445</v>
+      </c>
+      <c r="E52" t="n">
+        <v>3.31261628403975</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.000924276939036856</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.0756077791901711</v>
+      </c>
+      <c r="H52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" t="n">
+        <v>14.1723632457796</v>
+      </c>
+      <c r="C53" t="n">
+        <v>5.72997559108715</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1.73867707977999</v>
+      </c>
+      <c r="E53" t="n">
+        <v>3.29559505771608</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.00098213470391301</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.078873212128604</v>
+      </c>
+      <c r="H53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" t="n">
+        <v>22.659704899776</v>
+      </c>
+      <c r="C54" t="n">
+        <v>3.98445278798022</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1.20924906261976</v>
+      </c>
+      <c r="E54" t="n">
+        <v>3.29498108466435</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.000984283049612019</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.078873212128604</v>
+      </c>
+      <c r="H54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" t="n">
+        <v>20.9229106085804</v>
+      </c>
+      <c r="C55" t="n">
+        <v>3.42136995231637</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1.0407261366245</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3.28748345209555</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.00101087129849508</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.0801855788594129</v>
+      </c>
+      <c r="H55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" t="n">
+        <v>124.124223889671</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1.53131234714356</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.471741122049188</v>
+      </c>
+      <c r="E56" t="n">
+        <v>3.24608620188064</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.00117003405433597</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.090081151261768</v>
+      </c>
+      <c r="H56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" t="n">
+        <v>29.1325391094123</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2.53996309207561</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.783401979086027</v>
+      </c>
+      <c r="E57" t="n">
+        <v>3.24222194975677</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.00118601616770058</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.0904250967471128</v>
+      </c>
+      <c r="H57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" t="n">
+        <v>539.686468627819</v>
+      </c>
+      <c r="C58" t="n">
+        <v>6.0588793845572</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1.87911305375576</v>
+      </c>
+      <c r="E58" t="n">
+        <v>3.22432935711207</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.00126268084834698</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.0934027744934594</v>
+      </c>
+      <c r="H58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" t="n">
+        <v>78.6203176347802</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2.10164358363761</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.657274355505526</v>
+      </c>
+      <c r="E59" t="n">
+        <v>3.19751343717218</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.00138617952967702</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.0989606167868509</v>
+      </c>
+      <c r="H59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" t="n">
+        <v>36.2439942551421</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2.56854830117451</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.806233441552583</v>
+      </c>
+      <c r="E60" t="n">
+        <v>3.18586177252608</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.00144323534856479</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.101193992788208</v>
+      </c>
+      <c r="H60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" t="n">
+        <v>114.079395720788</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1.4399816101678</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.451746568761918</v>
+      </c>
+      <c r="E61" t="n">
+        <v>3.18758726627254</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.00143465159136106</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.101193992788208</v>
+      </c>
+      <c r="H61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" t="n">
+        <v>52.0034634594938</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1.88325725711195</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.599512393350021</v>
+      </c>
+      <c r="E62" t="n">
+        <v>3.14131497196994</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.00168191045013777</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.114852545782017</v>
+      </c>
+      <c r="H62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" t="n">
+        <v>67.6442424880542</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1.55502058829617</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.49855104701958</v>
+      </c>
+      <c r="E63" t="n">
+        <v>3.11907997705017</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.0018141671110553</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.122815985544114</v>
+      </c>
+      <c r="H63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" t="n">
+        <v>23.3061291392122</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2.86642772245118</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.921169772154941</v>
+      </c>
+      <c r="E64" t="n">
+        <v>3.11172577422466</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.00185997186889644</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.123199906912807</v>
+      </c>
+      <c r="H64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" t="n">
+        <v>101.144362599969</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1.58512286805742</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.509582995906637</v>
+      </c>
+      <c r="E65" t="n">
+        <v>3.11062747538743</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.00186690295716592</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.123199906912807</v>
+      </c>
+      <c r="H65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" t="n">
+        <v>56.5664522213284</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2.47259663972864</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.799388441694686</v>
+      </c>
+      <c r="E66" t="n">
+        <v>3.09311032129359</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.00198070488436281</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.129306370601889</v>
+      </c>
+      <c r="H66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" t="n">
+        <v>45.3637587518261</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1.97952680829425</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.64288189544339</v>
+      </c>
+      <c r="E67" t="n">
+        <v>3.07914536452918</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.00207595362219143</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.132540356057474</v>
+      </c>
+      <c r="H67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" t="n">
+        <v>8.98568938992453</v>
+      </c>
+      <c r="C68" t="n">
+        <v>6.46221936863032</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2.11110542816454</v>
+      </c>
+      <c r="E68" t="n">
+        <v>3.06105952001117</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.00220555245947727</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.1385616277142</v>
+      </c>
+      <c r="H68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" t="n">
+        <v>45.0288769740961</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2.58286973861336</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.845478784433145</v>
+      </c>
+      <c r="E69" t="n">
+        <v>3.05491963390312</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.00225120837169623</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.140307455102623</v>
+      </c>
+      <c r="H69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" t="n">
+        <v>53.5285281839405</v>
+      </c>
+      <c r="C70" t="n">
+        <v>3.0663532998612</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1.00700676030955</v>
+      </c>
+      <c r="E70" t="n">
+        <v>3.04501759145948</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.00232666700618963</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.142982436631025</v>
+      </c>
+      <c r="H70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" t="n">
+        <v>76.6192638024606</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1.49166551169149</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.493219668705503</v>
+      </c>
+      <c r="E71" t="n">
+        <v>3.02434311998647</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.00249173663377889</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.147124870564403</v>
+      </c>
+      <c r="H71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" t="n">
+        <v>74.8556980295224</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2.00108491701084</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.666730786418602</v>
+      </c>
+      <c r="E72" t="n">
+        <v>3.00133870787613</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.0026879539616402</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.155209576917356</v>
+      </c>
+      <c r="H72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73" t="n">
+        <v>33.4401571605029</v>
+      </c>
+      <c r="C73" t="n">
+        <v>3.20788779449301</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1.07658697877026</v>
+      </c>
+      <c r="E73" t="n">
+        <v>2.9796828846632</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.00288546927341476</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.163031822052194</v>
+      </c>
+      <c r="H73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" t="n">
+        <v>107.693732192219</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1.35657016414347</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.455277121474377</v>
+      </c>
+      <c r="E74" t="n">
+        <v>2.97965810306991</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.00288570269518082</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.163031822052194</v>
+      </c>
+      <c r="H74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>82</v>
+      </c>
+      <c r="B75" t="n">
+        <v>79.6737999617859</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2.18955089403129</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.742637683140316</v>
+      </c>
+      <c r="E75" t="n">
+        <v>2.94834337623773</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.00319481983187472</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.170754552656698</v>
+      </c>
+      <c r="H75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>83</v>
+      </c>
+      <c r="B76" t="n">
+        <v>300.233419663914</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1.11498174018782</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.378044152177133</v>
+      </c>
+      <c r="E76" t="n">
+        <v>2.94934264626688</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.00318450692240939</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.170754552656698</v>
+      </c>
+      <c r="H76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>84</v>
+      </c>
+      <c r="B77" t="n">
+        <v>82.2517003840417</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2.42845989878183</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.830974121228908</v>
+      </c>
+      <c r="E77" t="n">
+        <v>2.92242542426043</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.0034731678390533</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.179439388421615</v>
+      </c>
+      <c r="H77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>85</v>
+      </c>
+      <c r="B78" t="n">
+        <v>50.9479169399523</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1.80882730891072</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.620925586998876</v>
+      </c>
+      <c r="E78" t="n">
+        <v>2.91311446457431</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.00357843405265677</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.182476900100738</v>
+      </c>
+      <c r="H78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>86</v>
+      </c>
+      <c r="B79" t="n">
+        <v>13.4702673294455</v>
+      </c>
+      <c r="C79" t="n">
+        <v>4.54800113991115</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1.57007338363061</v>
+      </c>
+      <c r="E79" t="n">
+        <v>2.89668061845265</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.00377133479357869</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.191072852477248</v>
+      </c>
+      <c r="H79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>87</v>
+      </c>
+      <c r="B80" t="n">
+        <v>21.4541775590861</v>
+      </c>
+      <c r="C80" t="n">
+        <v>2.83058377609638</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.99076280821313</v>
+      </c>
+      <c r="E80" t="n">
+        <v>2.85697419466262</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.004277006087418</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.207329190151195</v>
+      </c>
+      <c r="H80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81" t="n">
+        <v>30.1408088516272</v>
+      </c>
+      <c r="C81" t="n">
+        <v>3.57046640009742</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1.26334776623456</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2.82619441417884</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.00471046650451077</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.212898015210701</v>
+      </c>
+      <c r="H81" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>89</v>
+      </c>
+      <c r="B82" t="n">
+        <v>531.660838841431</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1.36676874479883</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.484618797217813</v>
+      </c>
+      <c r="E82" t="n">
+        <v>2.82029659733675</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.00479792800411752</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.212898015210701</v>
+      </c>
+      <c r="H82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>90</v>
+      </c>
+      <c r="B83" t="n">
+        <v>175.864777094338</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1.01390942846678</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.359664840079281</v>
+      </c>
+      <c r="E83" t="n">
+        <v>2.81903960432519</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.00481675746392656</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.212898015210701</v>
+      </c>
+      <c r="H83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>91</v>
+      </c>
+      <c r="B84" t="n">
+        <v>154.787740390757</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2.00902468151417</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.718799706105967</v>
+      </c>
+      <c r="E84" t="n">
+        <v>2.79497148433446</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.00519042932550487</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.22273465296825</v>
+      </c>
+      <c r="H84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>92</v>
+      </c>
+      <c r="B85" t="n">
+        <v>6.38566025404313</v>
+      </c>
+      <c r="C85" t="n">
+        <v>6.01587252108126</v>
+      </c>
+      <c r="D85" t="n">
+        <v>2.17943114024666</v>
+      </c>
+      <c r="E85" t="n">
+        <v>2.76029483565166</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.00577492177411168</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.238686635221574</v>
+      </c>
+      <c r="H85" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>93</v>
+      </c>
+      <c r="B86" t="n">
+        <v>44.4092033583707</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2.14687164807733</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.775908041883809</v>
+      </c>
+      <c r="E86" t="n">
+        <v>2.76691506233779</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.00565894969065995</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.238686635221574</v>
+      </c>
+      <c r="H86" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>94</v>
+      </c>
+      <c r="B87" t="n">
+        <v>33.6405814374592</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2.60479686344193</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.955275361970608</v>
+      </c>
+      <c r="E87" t="n">
+        <v>2.72674975942913</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.00639615259611308</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.253681749178162</v>
+      </c>
+      <c r="H87" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>95</v>
+      </c>
+      <c r="B88" t="n">
+        <v>93.8566015903159</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1.65685446944044</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.606961542672735</v>
+      </c>
+      <c r="E88" t="n">
+        <v>2.72975197430885</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.0063381991369979</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.253681749178162</v>
+      </c>
+      <c r="H88" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>96</v>
+      </c>
+      <c r="B89" t="n">
+        <v>7.91724911075871</v>
+      </c>
+      <c r="C89" t="n">
+        <v>6.27306488941013</v>
+      </c>
+      <c r="D89" t="n">
+        <v>2.3148545862397</v>
+      </c>
+      <c r="E89" t="n">
+        <v>2.70991747244056</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.00672999512605819</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.26193958254772</v>
+      </c>
+      <c r="H89" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>97</v>
+      </c>
+      <c r="B90" t="n">
+        <v>18.5455480955322</v>
+      </c>
+      <c r="C90" t="n">
+        <v>6.15762799672801</v>
+      </c>
+      <c r="D90" t="n">
+        <v>2.27100996219711</v>
+      </c>
+      <c r="E90" t="n">
+        <v>2.71140510135444</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.00669987162223396</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.26193958254772</v>
+      </c>
+      <c r="H90" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>98</v>
+      </c>
+      <c r="B91" t="n">
+        <v>120.643398770024</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1.60844657886939</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.594607780663263</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2.70505471199053</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.0068293140339049</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.264190163094853</v>
+      </c>
+      <c r="H91" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>99</v>
+      </c>
+      <c r="B92" t="n">
+        <v>19.0952555244878</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2.92017528697566</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1.0850630339476</v>
+      </c>
+      <c r="E92" t="n">
+        <v>2.69124944414675</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.00711849472583104</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.266582254003076</v>
+      </c>
+      <c r="H92" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>100</v>
+      </c>
+      <c r="B93" t="n">
+        <v>386.248951981824</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1.55644509253161</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.578522997342973</v>
+      </c>
+      <c r="E93" t="n">
+        <v>2.69037721867587</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.00713712929868445</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.266582254003076</v>
+      </c>
+      <c r="H93" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>101</v>
+      </c>
+      <c r="B94" t="n">
+        <v>94.9319948572122</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1.20528184525392</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.447952540224537</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2.69064630072144</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.00713137585695796</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.266582254003076</v>
+      </c>
+      <c r="H94" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>102</v>
+      </c>
+      <c r="B95" t="n">
+        <v>471.889038049063</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1.15519319478811</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.429822693341601</v>
+      </c>
+      <c r="E95" t="n">
+        <v>2.68760401133594</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.00719666851504548</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.266582254003076</v>
+      </c>
+      <c r="H95" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>103</v>
+      </c>
+      <c r="B96" t="n">
+        <v>101.922522075337</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2.21454313178936</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.826383902668918</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2.67979945475364</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.0073666279705719</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.269070369548377</v>
+      </c>
+      <c r="H96" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>104</v>
+      </c>
+      <c r="B97" t="n">
+        <v>136.553710554246</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1.0068684980179</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.375538523652489</v>
+      </c>
+      <c r="E97" t="n">
+        <v>2.68113238616665</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.00733734821926046</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.269070369548377</v>
+      </c>
+      <c r="H97" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>105</v>
+      </c>
+      <c r="B98" t="n">
+        <v>42.1229274318636</v>
+      </c>
+      <c r="C98" t="n">
+        <v>7.38397780968441</v>
+      </c>
+      <c r="D98" t="n">
+        <v>2.76859781495076</v>
+      </c>
+      <c r="E98" t="n">
+        <v>2.66704602951358</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.00765211908002058</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.275895215569216</v>
+      </c>
+      <c r="H98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>106</v>
+      </c>
+      <c r="B99" t="n">
+        <v>46.3449552546677</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2.27881772457765</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.862883617237294</v>
+      </c>
+      <c r="E99" t="n">
+        <v>2.64093288950574</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.00826780947967776</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.284166983409998</v>
+      </c>
+      <c r="H99" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>107</v>
+      </c>
+      <c r="B100" t="n">
+        <v>143.944928328041</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1.89078155369183</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.716618144970324</v>
+      </c>
+      <c r="E100" t="n">
+        <v>2.63847847973503</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.00832789859325916</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.284166983409998</v>
+      </c>
+      <c r="H100" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>108</v>
+      </c>
+      <c r="B101" t="n">
+        <v>71.6601445913598</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1.81106466814013</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.685328186705568</v>
+      </c>
+      <c r="E101" t="n">
+        <v>2.64262393298906</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.00822663519777374</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.284166983409998</v>
+      </c>
+      <c r="H101" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>109</v>
+      </c>
+      <c r="B102" t="n">
+        <v>110.962301588856</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1.40466776743618</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.529696511687681</v>
+      </c>
+      <c r="E102" t="n">
+        <v>2.65183503467058</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.00800556447652798</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.284166983409998</v>
+      </c>
+      <c r="H102" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>110</v>
+      </c>
+      <c r="B103" t="n">
+        <v>832.864331252421</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2.12175214697634</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.806434966939253</v>
+      </c>
+      <c r="E103" t="n">
+        <v>2.63102696926603</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.00851272803676918</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.286911816621237</v>
+      </c>
+      <c r="H103" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>111</v>
+      </c>
+      <c r="B104" t="n">
+        <v>102.734885860808</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2.26047590691803</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.864776043470713</v>
+      </c>
+      <c r="E104" t="n">
+        <v>2.61394371870639</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.00895037789814831</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.293368799760497</v>
+      </c>
+      <c r="H104" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>112</v>
+      </c>
+      <c r="B105" t="n">
+        <v>7.58849825563077</v>
+      </c>
+      <c r="C105" t="n">
+        <v>6.21290375311795</v>
+      </c>
+      <c r="D105" t="n">
+        <v>2.43147219284339</v>
+      </c>
+      <c r="E105" t="n">
+        <v>2.55520247009385</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.0106126046692967</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.325549939328075</v>
+      </c>
+      <c r="H105" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>113</v>
+      </c>
+      <c r="B106" t="n">
+        <v>17.0838373967506</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2.98327532814629</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1.16837789820561</v>
+      </c>
+      <c r="E106" t="n">
+        <v>2.55334796449674</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.0106692846974309</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.326015146805155</v>
+      </c>
+      <c r="H106" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>114</v>
+      </c>
+      <c r="B107" t="n">
+        <v>487.211872210841</v>
+      </c>
+      <c r="C107" t="n">
+        <v>3.09363987638303</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1.2235472711043</v>
+      </c>
+      <c r="E107" t="n">
+        <v>2.52841876194199</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.0114577599153319</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.342120869258942</v>
+      </c>
+      <c r="H107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>115</v>
+      </c>
+      <c r="B108" t="n">
+        <v>179.943819348697</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1.23521088469375</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.49040144477222</v>
+      </c>
+      <c r="E108" t="n">
+        <v>2.51877497071298</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.0117763892510859</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.350302972684762</v>
+      </c>
+      <c r="H108" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>116</v>
+      </c>
+      <c r="B109" t="n">
+        <v>45.813335412687</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2.70923600371415</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1.0865295580084</v>
+      </c>
+      <c r="E109" t="n">
+        <v>2.4934765775541</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.0126498930000429</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.36929222947709</v>
+      </c>
+      <c r="H109" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>117</v>
+      </c>
+      <c r="B110" t="n">
+        <v>6.12410826012609</v>
+      </c>
+      <c r="C110" t="n">
+        <v>5.90066998234758</v>
+      </c>
+      <c r="D110" t="n">
+        <v>2.36990512591235</v>
+      </c>
+      <c r="E110" t="n">
+        <v>2.48983384095428</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.0127802828980768</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.370345245751281</v>
+      </c>
+      <c r="H110" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>118</v>
+      </c>
+      <c r="B111" t="n">
+        <v>30.280252594212</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1.84173258710347</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.741213224301943</v>
+      </c>
+      <c r="E111" t="n">
+        <v>2.48475408522017</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.012964095551317</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.372919569100706</v>
+      </c>
+      <c r="H111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>119</v>
+      </c>
+      <c r="B112" t="n">
+        <v>69.5722576272141</v>
+      </c>
+      <c r="C112" t="n">
+        <v>2.45131212947358</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.987452864000008</v>
+      </c>
+      <c r="E112" t="n">
+        <v>2.48245989134481</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.0130478755879602</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.373959733548364</v>
+      </c>
+      <c r="H112" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>120</v>
+      </c>
+      <c r="B113" t="n">
+        <v>16.5156115028885</v>
+      </c>
+      <c r="C113" t="n">
+        <v>3.5263205853695</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1.43208650426542</v>
+      </c>
+      <c r="E113" t="n">
+        <v>2.46236562865893</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.0138023880912817</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.379218605366958</v>
+      </c>
+      <c r="H113" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>121</v>
+      </c>
+      <c r="B114" t="n">
+        <v>53.4031431152043</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2.30508808147665</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.935704028745553</v>
+      </c>
+      <c r="E114" t="n">
+        <v>2.46347991529646</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.0137595604246124</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.379218605366958</v>
+      </c>
+      <c r="H114" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>122</v>
+      </c>
+      <c r="B115" t="n">
+        <v>50.1737038646736</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2.13368200260376</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.862707204269566</v>
+      </c>
+      <c r="E115" t="n">
+        <v>2.47324004255916</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.0133894175468888</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.379218605366958</v>
+      </c>
+      <c r="H115" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>123</v>
+      </c>
+      <c r="B116" t="n">
+        <v>81.4236916990216</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2.09903987270139</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.850917881406149</v>
+      </c>
+      <c r="E116" t="n">
+        <v>2.4667948794691</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.0136328427125472</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.379218605366958</v>
+      </c>
+      <c r="H116" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>124</v>
+      </c>
+      <c r="B117" t="n">
+        <v>46.2906433852274</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1.58161861368987</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.641549416065375</v>
+      </c>
+      <c r="E117" t="n">
+        <v>2.46531065898234</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.0136894504665385</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.379218605366958</v>
+      </c>
+      <c r="H117" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>125</v>
+      </c>
+      <c r="B118" t="n">
+        <v>48.7338046338372</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2.06967497414324</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.841946425163685</v>
+      </c>
+      <c r="E118" t="n">
+        <v>2.45820269827842</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.0139634337206708</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.379946274972445</v>
+      </c>
+      <c r="H118" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>126</v>
+      </c>
+      <c r="B119" t="n">
+        <v>147.888051230844</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1.34095565660431</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.545611170735076</v>
+      </c>
+      <c r="E119" t="n">
+        <v>2.45771298046867</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.0139824873891553</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.379946274972445</v>
+      </c>
+      <c r="H119" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>127</v>
+      </c>
+      <c r="B120" t="n">
+        <v>9.71461391642595</v>
+      </c>
+      <c r="C120" t="n">
+        <v>4.04010701730459</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1.64661231827279</v>
+      </c>
+      <c r="E120" t="n">
+        <v>2.45358726669946</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.0141439216117015</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.38300764281618</v>
+      </c>
+      <c r="H120" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>128</v>
+      </c>
+      <c r="B121" t="n">
+        <v>147.547429093111</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1.11868797405951</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.461620153193358</v>
+      </c>
+      <c r="E121" t="n">
+        <v>2.42339500630711</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.0153761972858936</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.397751932067912</v>
+      </c>
+      <c r="H121" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>129</v>
+      </c>
+      <c r="B122" t="n">
+        <v>119.589936676452</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1.08969084102517</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.449889640414246</v>
+      </c>
+      <c r="E122" t="n">
+        <v>2.42212921378187</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.0154298630124554</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.397751932067912</v>
+      </c>
+      <c r="H122" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>130</v>
+      </c>
+      <c r="B123" t="n">
+        <v>77.9238996530295</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2.23794505005593</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.928043317862857</v>
+      </c>
+      <c r="E123" t="n">
+        <v>2.41146615355152</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.0158885264968675</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.403351943193218</v>
+      </c>
+      <c r="H123" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>131</v>
+      </c>
+      <c r="B124" t="n">
+        <v>49.5055635814387</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2.25055795243115</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.937743502993005</v>
+      </c>
+      <c r="E124" t="n">
+        <v>2.39997178892524</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.0163963354395048</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.404906988070538</v>
+      </c>
+      <c r="H124" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>132</v>
+      </c>
+      <c r="B125" t="n">
+        <v>41.4378173898325</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1.86282382978071</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.775858715614919</v>
+      </c>
+      <c r="E125" t="n">
+        <v>2.40098331344296</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.0163510820981826</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.404906988070538</v>
+      </c>
+      <c r="H125" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>133</v>
+      </c>
+      <c r="B126" t="n">
+        <v>8.40698354592358</v>
+      </c>
+      <c r="C126" t="n">
+        <v>5.07926769920145</v>
+      </c>
+      <c r="D126" t="n">
+        <v>2.13009519400093</v>
+      </c>
+      <c r="E126" t="n">
+        <v>2.38452615334113</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.0171011324119519</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.409778950717886</v>
+      </c>
+      <c r="H126" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>134</v>
+      </c>
+      <c r="B127" t="n">
+        <v>159.985340419774</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1.08838565437251</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.456972638095615</v>
+      </c>
+      <c r="E127" t="n">
+        <v>2.38173046620087</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.017231504568387</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.410286171214838</v>
+      </c>
+      <c r="H127" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>135</v>
+      </c>
+      <c r="B128" t="n">
+        <v>16.760629985923</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2.56024907465205</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1.08017587502685</v>
+      </c>
+      <c r="E128" t="n">
+        <v>2.3702150120585</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.0177777434189071</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.415030579862459</v>
+      </c>
+      <c r="H128" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>136</v>
+      </c>
+      <c r="B129" t="n">
+        <v>57.5476104313071</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1.27048086832931</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.536299596416829</v>
+      </c>
+      <c r="E129" t="n">
+        <v>2.36897599181083</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.0178374112924889</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.415030579862459</v>
+      </c>
+      <c r="H129" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>137</v>
+      </c>
+      <c r="B130" t="n">
+        <v>42.9993900949458</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1.59999748829428</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.677448948402244</v>
+      </c>
+      <c r="E130" t="n">
+        <v>2.36179787726863</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.0181865547414561</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.421295027683348</v>
+      </c>
+      <c r="H130" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>138</v>
+      </c>
+      <c r="B131" t="n">
+        <v>34.7262395278277</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1.68090033839378</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.715343133771611</v>
+      </c>
+      <c r="E131" t="n">
+        <v>2.34978188653508</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.0187844147560597</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.428819793835282</v>
+      </c>
+      <c r="H131" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>139</v>
+      </c>
+      <c r="B132" t="n">
+        <v>13.5036368821147</v>
+      </c>
+      <c r="C132" t="n">
+        <v>5.43510840540128</v>
+      </c>
+      <c r="D132" t="n">
+        <v>2.33124602461749</v>
+      </c>
+      <c r="E132" t="n">
+        <v>2.33141776887022</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.0197313414776046</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.440199501771674</v>
+      </c>
+      <c r="H132" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>140</v>
+      </c>
+      <c r="B133" t="n">
+        <v>8.99605430994032</v>
+      </c>
+      <c r="C133" t="n">
+        <v>4.9532345257812</v>
+      </c>
+      <c r="D133" t="n">
+        <v>2.12598497751067</v>
+      </c>
+      <c r="E133" t="n">
+        <v>2.32985396330551</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.0198138709047932</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.440788465199266</v>
+      </c>
+      <c r="H133" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>141</v>
+      </c>
+      <c r="B134" t="n">
+        <v>17.6483864956881</v>
+      </c>
+      <c r="C134" t="n">
+        <v>2.60441700142015</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1.12702592855851</v>
+      </c>
+      <c r="E134" t="n">
+        <v>2.31087585070138</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.0208397133097121</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.457134828550751</v>
+      </c>
+      <c r="H134" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>142</v>
+      </c>
+      <c r="B135" t="n">
+        <v>75.7441967413058</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1.15341575393118</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.500280602318918</v>
+      </c>
+      <c r="E135" t="n">
+        <v>2.305537629452</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.0211364818132907</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.461220601767845</v>
+      </c>
+      <c r="H135" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>143</v>
+      </c>
+      <c r="B136" t="n">
+        <v>14.7108460213262</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2.42493529076711</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1.05351961090353</v>
+      </c>
+      <c r="E136" t="n">
+        <v>2.301746702833</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.0213494607708678</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.464424696492035</v>
+      </c>
+      <c r="H136" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>144</v>
+      </c>
+      <c r="B137" t="n">
+        <v>394.977331503599</v>
+      </c>
+      <c r="C137" t="n">
+        <v>2.30476846201559</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1.00226614297245</v>
+      </c>
+      <c r="E137" t="n">
+        <v>2.29955733631815</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.021473311515156</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.46454522129069</v>
+      </c>
+      <c r="H137" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>145</v>
+      </c>
+      <c r="B138" t="n">
+        <v>59.7398777191389</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1.59305934547112</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.694822156538546</v>
+      </c>
+      <c r="E138" t="n">
+        <v>2.29275841376072</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.0218619174517528</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.467837484342107</v>
+      </c>
+      <c r="H138" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>146</v>
+      </c>
+      <c r="B139" t="n">
+        <v>208.504855486864</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1.42091077121501</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.619684547277209</v>
+      </c>
+      <c r="E139" t="n">
+        <v>2.29295821149366</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.0218504109234472</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.467837484342107</v>
+      </c>
+      <c r="H139" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>147</v>
+      </c>
+      <c r="B140" t="n">
+        <v>21.9979691921064</v>
+      </c>
+      <c r="C140" t="n">
+        <v>2.27024599098397</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.993933359407416</v>
+      </c>
+      <c r="E140" t="n">
+        <v>2.28410282188083</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.0223654887856801</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.474692387659312</v>
+      </c>
+      <c r="H140" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>148</v>
+      </c>
+      <c r="B141" t="n">
+        <v>27.894786896844</v>
+      </c>
+      <c r="C141" t="n">
+        <v>2.07161521658451</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.910648209478985</v>
+      </c>
+      <c r="E141" t="n">
+        <v>2.27487979992818</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.022913141429739</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.479831732393975</v>
+      </c>
+      <c r="H141" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>149</v>
+      </c>
+      <c r="B142" t="n">
+        <v>13.4883354562604</v>
+      </c>
+      <c r="C142" t="n">
+        <v>3.15503839053876</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1.39564488952591</v>
+      </c>
+      <c r="E142" t="n">
+        <v>2.26063120656035</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.0237821036502004</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.484944526608507</v>
+      </c>
+      <c r="H142" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>150</v>
+      </c>
+      <c r="B143" t="n">
+        <v>113.284495992399</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1.38741175818094</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.611654073246438</v>
+      </c>
+      <c r="E143" t="n">
+        <v>2.26829480725447</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.0233112442149778</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.484944526608507</v>
+      </c>
+      <c r="H143" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>151</v>
+      </c>
+      <c r="B144" t="n">
+        <v>8.37623351162568</v>
+      </c>
+      <c r="C144" t="n">
+        <v>3.34488498461642</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1.48605024977487</v>
+      </c>
+      <c r="E144" t="n">
+        <v>2.25085590821922</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.0243946651419304</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.488702309590763</v>
+      </c>
+      <c r="H144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>152</v>
+      </c>
+      <c r="B145" t="n">
+        <v>87.7713807237438</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1.58884518843732</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.707002982850459</v>
+      </c>
+      <c r="E145" t="n">
+        <v>2.24729630139818</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.0246210971017307</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.490881641981047</v>
+      </c>
+      <c r="H145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>153</v>
+      </c>
+      <c r="B146" t="n">
+        <v>6.24512156664014</v>
+      </c>
+      <c r="C146" t="n">
+        <v>4.53998639381027</v>
+      </c>
+      <c r="D146" t="n">
+        <v>2.02658070918116</v>
+      </c>
+      <c r="E146" t="n">
+        <v>2.24021988033463</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.0250766516386723</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.492375756124163</v>
+      </c>
+      <c r="H146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>154</v>
+      </c>
+      <c r="B147" t="n">
+        <v>33.1758284232462</v>
+      </c>
+      <c r="C147" t="n">
+        <v>2.66890153058779</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1.19018063118779</v>
+      </c>
+      <c r="E147" t="n">
+        <v>2.24243401434305</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.024933335512052</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.492375756124163</v>
+      </c>
+      <c r="H147" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>155</v>
+      </c>
+      <c r="B148" t="n">
+        <v>14.8562338103303</v>
+      </c>
+      <c r="C148" t="n">
+        <v>4.39340780614095</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1.96226988749578</v>
+      </c>
+      <c r="E148" t="n">
+        <v>2.23894166349755</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.0251597121333107</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.492543148626974</v>
+      </c>
+      <c r="H148" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>156</v>
+      </c>
+      <c r="B149" t="n">
+        <v>36.3253398190374</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1.93574061836352</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.866759269384588</v>
+      </c>
+      <c r="E149" t="n">
+        <v>2.23330823994294</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.0255286245138734</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.495479237014506</v>
+      </c>
+      <c r="H149" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>157</v>
+      </c>
+      <c r="B150" t="n">
+        <v>17.4723461190027</v>
+      </c>
+      <c r="C150" t="n">
+        <v>3.19643081308954</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1.43272806335492</v>
+      </c>
+      <c r="E150" t="n">
+        <v>2.23101012316648</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.02568045846418</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.495500344764632</v>
+      </c>
+      <c r="H150" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>158</v>
+      </c>
+      <c r="B151" t="n">
+        <v>69.0891253107746</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1.96937777369156</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.885285825591254</v>
+      </c>
+      <c r="E151" t="n">
+        <v>2.22456715872106</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.0261103093702425</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.50010794996223</v>
+      </c>
+      <c r="H151" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>159</v>
+      </c>
+      <c r="B152" t="n">
+        <v>6.60724197443729</v>
+      </c>
+      <c r="C152" t="n">
+        <v>6.01916003479839</v>
+      </c>
+      <c r="D152" t="n">
+        <v>2.73698807345029</v>
+      </c>
+      <c r="E152" t="n">
+        <v>2.19919118142541</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.0278643311257451</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.520996648405896</v>
+      </c>
+      <c r="H152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>160</v>
+      </c>
+      <c r="B153" t="n">
+        <v>282.6021764863</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1.02549449242969</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.46558290784986</v>
+      </c>
+      <c r="E153" t="n">
+        <v>2.20260339273535</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.0276227145876407</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.520996648405896</v>
+      </c>
+      <c r="H153" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>161</v>
+      </c>
+      <c r="B154" t="n">
+        <v>13.8016974812966</v>
+      </c>
+      <c r="C154" t="n">
+        <v>2.40690808507428</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1.09721930128969</v>
+      </c>
+      <c r="E154" t="n">
+        <v>2.19364358815522</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.0282610422443403</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.524263956583786</v>
+      </c>
+      <c r="H154" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>162</v>
+      </c>
+      <c r="B155" t="n">
+        <v>6.90376795768684</v>
+      </c>
+      <c r="C155" t="n">
+        <v>6.17005574217737</v>
+      </c>
+      <c r="D155" t="n">
+        <v>2.82652513537006</v>
+      </c>
+      <c r="E155" t="n">
+        <v>2.18291203745817</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.0290422883988832</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.528236783418773</v>
+      </c>
+      <c r="H155" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>163</v>
+      </c>
+      <c r="B156" t="n">
+        <v>9.09094151471177</v>
+      </c>
+      <c r="C156" t="n">
+        <v>3.38441569732074</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1.5540572336865</v>
+      </c>
+      <c r="E156" t="n">
+        <v>2.17779347115312</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.0294214161941871</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.528832418821275</v>
+      </c>
+      <c r="H156" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>164</v>
+      </c>
+      <c r="B157" t="n">
+        <v>52.6250778119277</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1.72057252037096</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.79191224670329</v>
+      </c>
+      <c r="E157" t="n">
+        <v>2.1726807831722</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.0298043510940722</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.52953296185916</v>
+      </c>
+      <c r="H157" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>165</v>
+      </c>
+      <c r="B158" t="n">
+        <v>143.908320402365</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1.00390080704074</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.462051960262159</v>
+      </c>
+      <c r="E158" t="n">
+        <v>2.17270111021961</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.0298028201753049</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.52953296185916</v>
+      </c>
+      <c r="H158" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>166</v>
+      </c>
+      <c r="B159" t="n">
+        <v>67.4340374948585</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1.56105560181381</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.722218897838001</v>
+      </c>
+      <c r="E159" t="n">
+        <v>2.16147155175101</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.0306589321808989</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.535800429706688</v>
+      </c>
+      <c r="H159" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>167</v>
+      </c>
+      <c r="B160" t="n">
+        <v>105.398549373044</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1.3305801949859</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.615152819495588</v>
+      </c>
+      <c r="E160" t="n">
+        <v>2.16300755327261</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.030540598673503</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.535800429706688</v>
+      </c>
+      <c r="H160" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>168</v>
+      </c>
+      <c r="B161" t="n">
+        <v>11.4694763344364</v>
+      </c>
+      <c r="C161" t="n">
+        <v>3.5637692987743</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1.65496602234036</v>
+      </c>
+      <c r="E161" t="n">
+        <v>2.15337913326741</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.0312888941666391</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.542409902628293</v>
+      </c>
+      <c r="H161" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>169</v>
+      </c>
+      <c r="B162" t="n">
+        <v>54.1336519936107</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1.28805196854788</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.599167648315405</v>
+      </c>
+      <c r="E162" t="n">
+        <v>2.14973550753168</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.0315761421078713</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.543788254327002</v>
+      </c>
+      <c r="H162" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>170</v>
+      </c>
+      <c r="B163" t="n">
+        <v>23.5585382557625</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1.79581240584132</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.837414436310403</v>
+      </c>
+      <c r="E163" t="n">
+        <v>2.1444727102551</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.0319950297607015</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.546210801545194</v>
+      </c>
+      <c r="H163" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>171</v>
+      </c>
+      <c r="B164" t="n">
+        <v>10.4247853911942</v>
+      </c>
+      <c r="C164" t="n">
+        <v>3.20180443751142</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1.49744850376058</v>
+      </c>
+      <c r="E164" t="n">
+        <v>2.1381733191296</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.0325026789869977</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.551483661212193</v>
+      </c>
+      <c r="H164" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>172</v>
+      </c>
+      <c r="B165" t="n">
+        <v>9.89828955583305</v>
+      </c>
+      <c r="C165" t="n">
+        <v>2.83895869665429</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1.3338523581518</v>
+      </c>
+      <c r="E165" t="n">
+        <v>2.12839050686838</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.0333047195795382</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.558244335138608</v>
+      </c>
+      <c r="H165" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>173</v>
+      </c>
+      <c r="B166" t="n">
+        <v>71.3299641080434</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1.81508035888962</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.853906855640775</v>
+      </c>
+      <c r="E166" t="n">
+        <v>2.12561867479981</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.0335350233751756</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.559260139756618</v>
+      </c>
+      <c r="H166" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>174</v>
+      </c>
+      <c r="B167" t="n">
+        <v>11.4540875043447</v>
+      </c>
+      <c r="C167" t="n">
+        <v>2.49743644409698</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1.1835379966574</v>
+      </c>
+      <c r="E167" t="n">
+        <v>2.11014471115448</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.0348458931066221</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.56934430583412</v>
+      </c>
+      <c r="H167" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>175</v>
+      </c>
+      <c r="B168" t="n">
+        <v>22.7837000339173</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1.76350774040886</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.834745219045607</v>
+      </c>
+      <c r="E168" t="n">
+        <v>2.11262993806079</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.0346324542160766</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.56934430583412</v>
+      </c>
+      <c r="H168" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>176</v>
+      </c>
+      <c r="B169" t="n">
+        <v>6.25887833418298</v>
+      </c>
+      <c r="C169" t="n">
+        <v>4.3244905901165</v>
+      </c>
+      <c r="D169" t="n">
+        <v>2.0558131965354</v>
+      </c>
+      <c r="E169" t="n">
+        <v>2.10354257741143</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.0354183674917041</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.572305431918421</v>
+      </c>
+      <c r="H169" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>177</v>
+      </c>
+      <c r="B170" t="n">
+        <v>9.57407522902297</v>
+      </c>
+      <c r="C170" t="n">
+        <v>3.45946382850225</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1.66330867652999</v>
+      </c>
+      <c r="E170" t="n">
+        <v>2.07986880445992</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.0375375680492263</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0.582915293502715</v>
+      </c>
+      <c r="H170" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>178</v>
+      </c>
+      <c r="B171" t="n">
+        <v>78.5333763893601</v>
+      </c>
+      <c r="C171" t="n">
+        <v>2.02748793761453</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.970783764232276</v>
+      </c>
+      <c r="E171" t="n">
+        <v>2.08850622797336</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.0367521941938923</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.582915293502715</v>
+      </c>
+      <c r="H171" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>179</v>
+      </c>
+      <c r="B172" t="n">
+        <v>952.586572361226</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1.742891794796</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.834521035269973</v>
+      </c>
+      <c r="E172" t="n">
+        <v>2.08849354436245</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.0367533371333787</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.582915293502715</v>
+      </c>
+      <c r="H172" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>180</v>
+      </c>
+      <c r="B173" t="n">
+        <v>48.325253646399</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1.22588708875702</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.589473854459428</v>
+      </c>
+      <c r="E173" t="n">
+        <v>2.07962928208446</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.0375595490274257</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.582915293502715</v>
+      </c>
+      <c r="H173" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>181</v>
+      </c>
+      <c r="B174" t="n">
+        <v>78.7338692378509</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1.03175885813894</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.495439839952447</v>
+      </c>
+      <c r="E174" t="n">
+        <v>2.0825108821244</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.0372958299476747</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.582915293502715</v>
+      </c>
+      <c r="H174" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>182</v>
+      </c>
+      <c r="B175" t="n">
+        <v>14.715929709754</v>
+      </c>
+      <c r="C175" t="n">
+        <v>2.34011741951613</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1.12704709353773</v>
+      </c>
+      <c r="E175" t="n">
+        <v>2.07632620937839</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.0378637908448025</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.586478006911704</v>
+      </c>
+      <c r="H175" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>183</v>
+      </c>
+      <c r="B176" t="n">
+        <v>9.49234727111348</v>
+      </c>
+      <c r="C176" t="n">
+        <v>2.7849011619812</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1.34237818943409</v>
+      </c>
+      <c r="E176" t="n">
+        <v>2.07460251060488</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.0380233892372591</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.587790700157865</v>
+      </c>
+      <c r="H176" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>184</v>
+      </c>
+      <c r="B177" t="n">
+        <v>12.4153586487767</v>
+      </c>
+      <c r="C177" t="n">
+        <v>2.56397767650374</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1.23681887253654</v>
+      </c>
+      <c r="E177" t="n">
+        <v>2.07304216764205</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.0381683554006294</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.587821287185971</v>
+      </c>
+      <c r="H177" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>185</v>
+      </c>
+      <c r="B178" t="n">
+        <v>18.7158292766523</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1.86769065792699</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.902863891685964</v>
+      </c>
+      <c r="E178" t="n">
+        <v>2.0686292531196</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.0385808906625052</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.589446954032399</v>
+      </c>
+      <c r="H178" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>186</v>
+      </c>
+      <c r="B179" t="n">
+        <v>286.642805444558</v>
+      </c>
+      <c r="C179" t="n">
+        <v>2.0826351555862</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1.009998815606</v>
+      </c>
+      <c r="E179" t="n">
+        <v>2.06201742359136</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.0392060771755215</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0.590714662683959</v>
+      </c>
+      <c r="H179" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>187</v>
+      </c>
+      <c r="B180" t="n">
+        <v>34.8665335860248</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1.36972447223497</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.664974007488352</v>
+      </c>
+      <c r="E180" t="n">
+        <v>2.05981655945997</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.0394160808921934</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.590714662683959</v>
+      </c>
+      <c r="H180" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>188</v>
+      </c>
+      <c r="B181" t="n">
+        <v>235.539277060386</v>
+      </c>
+      <c r="C181" t="n">
+        <v>2.7440670129729</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1.33595698439852</v>
+      </c>
+      <c r="E181" t="n">
+        <v>2.05400850852122</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.0399748682086049</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.593035635384165</v>
+      </c>
+      <c r="H181" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>189</v>
+      </c>
+      <c r="B182" t="n">
+        <v>10.3618104850179</v>
+      </c>
+      <c r="C182" t="n">
+        <v>2.55871035729935</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1.24497868951753</v>
+      </c>
+      <c r="E182" t="n">
+        <v>2.05522422097919</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.039857352711908</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0.593035635384165</v>
+      </c>
+      <c r="H182" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>190</v>
+      </c>
+      <c r="B183" t="n">
+        <v>10.5776934127969</v>
+      </c>
+      <c r="C183" t="n">
+        <v>4.58215054021424</v>
+      </c>
+      <c r="D183" t="n">
+        <v>2.23348865207714</v>
+      </c>
+      <c r="E183" t="n">
+        <v>2.05156651946848</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0.0402118087735517</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.594034466641621</v>
+      </c>
+      <c r="H183" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>191</v>
+      </c>
+      <c r="B184" t="n">
+        <v>18.2523083474675</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1.95796747235557</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.955628269746477</v>
+      </c>
+      <c r="E184" t="n">
+        <v>2.04887981482068</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0.0404738685879449</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.594034466641621</v>
+      </c>
+      <c r="H184" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>192</v>
+      </c>
+      <c r="B185" t="n">
+        <v>20.6340602062444</v>
+      </c>
+      <c r="C185" t="n">
+        <v>2.28850192633706</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1.1191235721978</v>
+      </c>
+      <c r="E185" t="n">
+        <v>2.04490548067249</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.0408641774946711</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.596480271125747</v>
+      </c>
+      <c r="H185" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>193</v>
+      </c>
+      <c r="B186" t="n">
+        <v>44.9847224391322</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1.27221209360188</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.6220818799221</v>
+      </c>
+      <c r="E186" t="n">
+        <v>2.04508784882335</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.040846198026976</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.596480271125747</v>
+      </c>
+      <c r="H186" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>194</v>
+      </c>
+      <c r="B187" t="n">
+        <v>27.3855465409502</v>
+      </c>
+      <c r="C187" t="n">
+        <v>2.1395999424306</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1.05386877760415</v>
+      </c>
+      <c r="E187" t="n">
+        <v>2.03023373298405</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.0423327864767844</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.607307231456818</v>
+      </c>
+      <c r="H187" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>195</v>
+      </c>
+      <c r="B188" t="n">
+        <v>726.469384630804</v>
+      </c>
+      <c r="C188" t="n">
+        <v>2.54021338268398</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1.25470754457464</v>
+      </c>
+      <c r="E188" t="n">
+        <v>2.02454619298965</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.042913984135744</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.607993586869993</v>
+      </c>
+      <c r="H188" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>196</v>
+      </c>
+      <c r="B189" t="n">
+        <v>6.85802907081787</v>
+      </c>
+      <c r="C189" t="n">
+        <v>3.49663217070114</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1.73590070335639</v>
+      </c>
+      <c r="E189" t="n">
+        <v>2.01430425365941</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0.0439775996573675</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.614424835194259</v>
+      </c>
+      <c r="H189" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>197</v>
+      </c>
+      <c r="B190" t="n">
+        <v>149.177937818172</v>
+      </c>
+      <c r="C190" t="n">
+        <v>2.64555850363427</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1.31189944138811</v>
+      </c>
+      <c r="E190" t="n">
+        <v>2.01658634813888</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.0437386988669354</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.614424835194259</v>
+      </c>
+      <c r="H190" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>198</v>
+      </c>
+      <c r="B191" t="n">
+        <v>81.0080493344462</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1.5565197258691</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.774991907923978</v>
+      </c>
+      <c r="E191" t="n">
+        <v>2.00843352034301</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.0445972438635843</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.614424835194259</v>
+      </c>
+      <c r="H191" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>199</v>
+      </c>
+      <c r="B192" t="n">
+        <v>239.478626196469</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1.1568920960998</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.576950183284458</v>
+      </c>
+      <c r="E192" t="n">
+        <v>2.00518542088652</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0.0449432280860112</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0.614876603065237</v>
+      </c>
+      <c r="H192" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>200</v>
+      </c>
+      <c r="B193" t="n">
+        <v>82.6226788704832</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1.28599587258844</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.643165532836662</v>
+      </c>
+      <c r="E193" t="n">
+        <v>1.99947883854502</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0.0455565692542219</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0.616653667289764</v>
+      </c>
+      <c r="H193" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>201</v>
+      </c>
+      <c r="B194" t="n">
+        <v>750.899784240475</v>
+      </c>
+      <c r="C194" t="n">
+        <v>2.16900801612273</v>
+      </c>
+      <c r="D194" t="n">
+        <v>1.08873736867551</v>
+      </c>
+      <c r="E194" t="n">
+        <v>1.99222335755906</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0.046346556537888</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0.624287321598686</v>
+      </c>
+      <c r="H194" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>202</v>
+      </c>
+      <c r="B195" t="n">
+        <v>69.2123266331301</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1.15727005169552</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.589604143312571</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1.96279158622196</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0.0496703958607298</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0.64902099616358</v>
+      </c>
+      <c r="H195" t="s">
         <v>9</v>
       </c>
     </row>
